--- a/excel/traffic_202309.xlsx
+++ b/excel/traffic_202309.xlsx
@@ -720,7 +720,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>145</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>4600</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>4400</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>4000</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>4600</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>4600</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2263</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>5400</t>
         </is>
       </c>
     </row>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>7560</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>6480</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2880</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>720</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>6480</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>5400</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>6480</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4856,7 +4856,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>6480</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>5400</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>7500</t>
         </is>
       </c>
     </row>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>6480</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6449,7 +6449,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>7721</t>
+          <t>13125</t>
         </is>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>3986</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>330</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>2640</t>
         </is>
       </c>
     </row>
@@ -7179,7 +7179,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>7560</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7356,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>6120</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>7920</t>
         </is>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -8396,7 +8396,7 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>7560</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>5400</t>
+          <t>7920</t>
         </is>
       </c>
     </row>
@@ -8595,7 +8595,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>5400</t>
+          <t>7920</t>
         </is>
       </c>
     </row>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>5400</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>5400</t>
+          <t>7560</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9126,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>6120</t>
         </is>
       </c>
     </row>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>6480</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>5400</t>
         </is>
       </c>
     </row>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>3900</t>
         </is>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>7560</t>
         </is>
       </c>
     </row>
@@ -10273,7 +10273,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-162</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>-162</t>
+          <t>-324</t>
         </is>
       </c>
     </row>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -10520,7 +10520,7 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1170</t>
         </is>
       </c>
     </row>
@@ -10602,7 +10602,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1365</t>
         </is>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="AC59" t="inlineStr">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2628</t>
         </is>
       </c>
     </row>
@@ -11073,7 +11073,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>4000</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>3588</t>
         </is>
       </c>
     </row>
@@ -11427,7 +11427,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>495</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>541</t>
         </is>
       </c>
     </row>
@@ -11958,7 +11958,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -12113,7 +12113,7 @@
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>5250</t>
         </is>
       </c>
     </row>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>102</t>
         </is>
       </c>
     </row>
@@ -12312,7 +12312,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>5400</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="AI69" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -12843,7 +12843,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="AI71" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>4680</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -13352,7 +13352,7 @@
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -13374,7 +13374,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="AI74" t="inlineStr">
         <is>
-          <t>3960</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="AI75" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>7200</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="AI76" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>8022</t>
         </is>
       </c>
     </row>
@@ -14060,7 +14060,7 @@
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -14082,7 +14082,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -14237,7 +14237,7 @@
       </c>
       <c r="AI78" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>6180</t>
         </is>
       </c>
     </row>
@@ -14259,7 +14259,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -14414,7 +14414,7 @@
       </c>
       <c r="AI79" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14436,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -14591,7 +14591,7 @@
       </c>
       <c r="AI80" t="inlineStr">
         <is>
-          <t>4320</t>
+          <t>6840</t>
         </is>
       </c>
     </row>
@@ -14608,12 +14608,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2,360</t>
+          <t>21,316</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3,722</t>
+          <t>5,717</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -14623,22 +14623,22 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11,640</t>
+          <t>15,378</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>17,760</t>
+          <t>18,120</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>18,840</t>
+          <t>19,200</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>19,360</t>
+          <t>19,560</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -14648,7 +14648,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>3,540</t>
+          <t>4,817</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>20,779</t>
+          <t>23,911</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -14668,12 +14668,12 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>17,030</t>
+          <t>19,115</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>18,835</t>
+          <t>19,928</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -14693,17 +14693,17 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>19,234</t>
+          <t>19,072</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>18,090</t>
+          <t>18,830</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>23,569</t>
+          <t>24,289</t>
         </is>
       </c>
       <c r="X81" t="inlineStr">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>22,480</t>
+          <t>22,840</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="AB81" t="inlineStr">
         <is>
-          <t>18,550</t>
+          <t>18,685</t>
         </is>
       </c>
       <c r="AC81" t="inlineStr">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="AI81" t="inlineStr">
         <is>
-          <t>248,426</t>
+          <t>434,036</t>
         </is>
       </c>
     </row>
